--- a/extra/turn_slope_calculations.xlsx
+++ b/extra/turn_slope_calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardoguzman/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardoguzman/LoRa_1W_APRS_Tracker/extra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887E0309-383D-EA46-9066-5DD21134A838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D6971-997E-5247-8C99-9D999CDF6E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11960" yWindow="500" windowWidth="16460" windowHeight="17500" activeTab="2" xr2:uid="{DBFFA357-4DA8-5B49-9A69-916C3F421B7B}"/>
+    <workbookView xWindow="11960" yWindow="500" windowWidth="16460" windowHeight="17500" xr2:uid="{DBFFA357-4DA8-5B49-9A69-916C3F421B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Turn_Slope_Car" sheetId="2" r:id="rId1"/>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,9 +241,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -260,12 +257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,15 +270,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -615,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0725DAB-8169-424B-B5BC-5EF30FA8E1AB}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,45 +614,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <f>+$G$8</f>
-        <v>15</v>
-      </c>
-      <c r="B2" s="7">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6">
         <f>+$G$9</f>
         <v>80</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>10</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f>+B2/C2</f>
         <v>8</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f t="shared" ref="E2:E11" si="0">+D2+A2</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -683,24 +665,24 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <f t="shared" ref="A3:A13" si="1">+$G$8</f>
-        <v>15</v>
-      </c>
-      <c r="B3" s="11">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
         <f t="shared" ref="B3:B13" si="2">+$G$9</f>
         <v>80</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D11" si="3">+B3/C3</f>
         <v>4</v>
       </c>
-      <c r="E3" s="13">
-        <f t="shared" si="0"/>
-        <v>19</v>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -713,24 +695,24 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="1">
         <v>30</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="2">
         <f t="shared" si="3"/>
         <v>2.6666666666666665</v>
       </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>17.666666666666668</v>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>14.666666666666666</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -743,24 +725,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="1">
         <v>40</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="2">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -773,24 +755,24 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="1">
         <v>50</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="2">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>16.600000000000001</v>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>13.6</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -803,60 +785,60 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="9">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="1">
         <v>60</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="2">
         <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>16.333333333333332</v>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B8" s="15">
+      <c r="A8" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="12">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="C8" s="15">
-        <v>70</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="C8" s="12">
+        <v>70</v>
+      </c>
+      <c r="D8" s="13">
         <f t="shared" si="3"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="E8" s="17">
-        <f t="shared" si="0"/>
-        <v>16.142857142857142</v>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>13.142857142857142</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>16</v>
@@ -865,7 +847,7 @@
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="2"/>
@@ -880,7 +862,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
@@ -893,7 +875,7 @@
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="2"/>
@@ -908,14 +890,14 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>15.888888888888889</v>
+        <v>12.888888888888889</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="2"/>
@@ -930,14 +912,14 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>15.8</v>
+        <v>12.8</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="2"/>
@@ -952,13 +934,13 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" ref="E12:E13" si="5">+D12+A12</f>
-        <v>15.727272727272727</v>
+        <v>12.727272727272727</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="2"/>
@@ -973,7 +955,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="5"/>
-        <v>15.666666666666666</v>
+        <v>12.666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -986,431 +968,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <f>+$G$8</f>
-        <v>12</v>
-      </c>
-      <c r="B2" s="7">
-        <f>+$G$9</f>
-        <v>70</v>
-      </c>
-      <c r="C2" s="18">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8">
-        <f t="shared" ref="D2:D12" si="0">+B2/C2</f>
-        <v>14</v>
-      </c>
-      <c r="E2" s="9">
-        <f t="shared" ref="E2:E12" si="1">+D2+A2</f>
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>120</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <f t="shared" ref="A3:A15" si="2">+$G$8</f>
-        <v>12</v>
-      </c>
-      <c r="B3" s="11">
-        <f t="shared" ref="B3:B15" si="3">+$G$9</f>
-        <v>70</v>
-      </c>
-      <c r="C3" s="19">
-        <v>6.5</v>
-      </c>
-      <c r="D3" s="12">
-        <f t="shared" si="0"/>
-        <v>10.76923076923077</v>
-      </c>
-      <c r="E3" s="13">
-        <f t="shared" si="1"/>
-        <v>22.76923076923077</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B4" s="11">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C4" s="19">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12">
-        <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="1"/>
-        <v>20.75</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>60</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B5" s="11">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C5" s="19">
-        <v>10</v>
-      </c>
-      <c r="D5" s="12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B6" s="11">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C6" s="19">
-        <v>12.5</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="1"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1">
-        <v>70</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B7" s="11">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C7" s="19">
-        <v>15</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B8" s="11">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C8" s="19">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="1"/>
-        <v>15.5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1">
-        <v>12</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B9" s="11">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C9" s="19">
-        <v>25</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="1"/>
-        <v>14.8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B10" s="11">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C10" s="19">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="1"/>
-        <v>14.333333333333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B11" s="11">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C11" s="19">
-        <v>35</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B12" s="15">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C12" s="20">
-        <v>40</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="E12" s="17">
-        <f t="shared" si="1"/>
-        <v>13.75</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C13" s="5">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:D14" si="4">+B13/C13</f>
-        <v>1.4</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" ref="E13:E14" si="5">+D13+A13</f>
-        <v>13.4</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C14" s="5">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="5"/>
-        <v>13.166666666666666</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C15" s="5">
-        <v>70</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15" si="6">+B15/C15</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" ref="E15" si="7">+D15+A15</f>
-        <v>13</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4331158A-D018-7444-BB39-19E7D1A630F9}">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1426,44 +984,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>1</v>
+      <c r="F1" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <f>+$G$8</f>
-        <v>8</v>
-      </c>
-      <c r="B2" s="7">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6">
         <f>+$G$9</f>
-        <v>50</v>
-      </c>
-      <c r="C2" s="7">
-        <v>3</v>
-      </c>
-      <c r="D2" s="8">
-        <f>+B2/C2</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="E2" s="9">
-        <f t="shared" ref="E2:E10" si="0">+D2+A2</f>
-        <v>24.666666666666668</v>
+        <v>70</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <f t="shared" ref="D2:D12" si="0">+B2/C2</f>
+        <v>14</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E12" si="1">+D2+A2</f>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1476,54 +1034,54 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <f t="shared" ref="A3:A9" si="1">+$G$8</f>
-        <v>8</v>
-      </c>
-      <c r="B3" s="11">
-        <f t="shared" ref="B3:B9" si="2">+$G$9</f>
-        <v>50</v>
-      </c>
-      <c r="C3" s="11">
-        <v>4</v>
-      </c>
-      <c r="D3" s="12">
-        <f t="shared" ref="D3:D10" si="3">+B3/C3</f>
-        <v>12.5</v>
-      </c>
-      <c r="E3" s="13">
-        <f t="shared" si="0"/>
-        <v>20.5</v>
+      <c r="A3" s="9">
+        <f t="shared" ref="A3:A15" si="2">+$G$8</f>
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B15" si="3">+$G$9</f>
+        <v>70</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>10.76923076923077</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="1"/>
+        <v>25.76923076923077</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <f t="shared" si="1"/>
+      <c r="A4" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C4" s="1">
         <v>8</v>
       </c>
-      <c r="B4" s="11">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C4" s="11">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" si="0"/>
-        <v>18</v>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="1"/>
+        <v>23.75</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -1536,237 +1094,661 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B5" s="11">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C5" s="19">
-        <v>6</v>
-      </c>
-      <c r="D5" s="12">
-        <f t="shared" si="3"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>16.333333333333336</v>
+      <c r="A5" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B6" s="11">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C6" s="11">
-        <v>7</v>
-      </c>
-      <c r="D6" s="12">
-        <f t="shared" si="3"/>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>15.142857142857142</v>
+      <c r="A6" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="1"/>
+        <v>20.6</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B7" s="11">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C7" s="11">
-        <v>8</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="3"/>
-        <v>6.25</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>14.25</v>
+      <c r="A7" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
+        <v>19.666666666666668</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B8" s="11">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C8" s="11">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="3"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>13.555555555555555</v>
+      <c r="A8" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <f t="shared" si="1"/>
+      <c r="A9" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>17.8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C11" s="1">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B12" s="12">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C12" s="12">
+        <v>40</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D14" si="4">+B13/C13</f>
+        <v>1.4</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13:E14" si="5">+D13+A13</f>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C14" s="1">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="5"/>
+        <v>16.166666666666668</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="C15" s="1">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="6">+B15/C15</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ref="E15" si="7">+D15+A15</f>
+        <v>16</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4331158A-D018-7444-BB39-19E7D1A630F9}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="D1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12">
-        <f t="shared" si="3"/>
+      <c r="F1" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <f>+$G$8</f>
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <f>+$G$9</f>
+        <v>70</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7">
+        <f>+B2/C2</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E10" si="0">+D2+A2</f>
+        <v>26.333333333333332</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>120</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <f t="shared" ref="A3:A9" si="1">+$G$8</f>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B9" si="2">+$G$9</f>
+        <v>70</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D10" si="3">+B3/C3</f>
+        <v>17.5</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
+        <v>20.5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="13">
+      <c r="D4" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>60</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="3"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>14.666666666666666</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="E6" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="3"/>
+        <v>8.75</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="0"/>
+        <v>11.75</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>20</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C8" s="1">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="3"/>
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>10.777777777777779</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="11">
         <f>+$G$8</f>
-        <v>8</v>
-      </c>
-      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12">
         <f>+$G$9</f>
-        <v>50</v>
-      </c>
-      <c r="C10" s="15">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E10" s="17">
-        <f t="shared" si="0"/>
-        <v>11.333333333333334</v>
+        <v>70</v>
+      </c>
+      <c r="C10" s="12">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="3"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>7.666666666666667</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f>+$G$8</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1">
         <f>+$G$9</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>20</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" ref="D11:D12" si="4">+B11/C11</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ref="E11:E12" si="5">+D11+A11</f>
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f>+$G$8</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1">
         <f>+$G$9</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1">
         <v>25</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f>+$G$8</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <f>+$G$9</f>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1">
         <v>30</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" ref="D13" si="6">+B13/C13</f>
-        <v>1.6666666666666667</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ref="E13" si="7">+D13+A13</f>
-        <v>9.6666666666666661</v>
+        <v>5.3333333333333339</v>
       </c>
       <c r="G13" s="1"/>
     </row>

--- a/extra/turn_slope_calculations.xlsx
+++ b/extra/turn_slope_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardoguzman/LoRa_1W_APRS_Tracker/extra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D6971-997E-5247-8C99-9D999CDF6E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBD61A4-A708-CB42-80AE-C03AFD92E140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11960" yWindow="500" windowWidth="16460" windowHeight="17500" xr2:uid="{DBFFA357-4DA8-5B49-9A69-916C3F421B7B}"/>
   </bookViews>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +279,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,7 +604,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,7 +643,7 @@
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <f>+$G$8</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6">
         <f>+$G$9</f>
@@ -652,7 +658,7 @@
       </c>
       <c r="E2" s="8">
         <f t="shared" ref="E2:E11" si="0">+D2+A2</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -667,7 +673,7 @@
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A13" si="1">+$G$8</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B13" si="2">+$G$9</f>
@@ -682,7 +688,7 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -697,7 +703,7 @@
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="2"/>
@@ -712,7 +718,7 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>14.666666666666666</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -727,7 +733,7 @@
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="2"/>
@@ -742,7 +748,7 @@
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -757,7 +763,7 @@
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="2"/>
@@ -772,7 +778,7 @@
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>13.6</v>
+        <v>11.6</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -787,7 +793,7 @@
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="2"/>
@@ -802,7 +808,7 @@
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>11.333333333333334</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -817,7 +823,7 @@
     <row r="8" spans="1:8" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="12">
         <f t="shared" si="2"/>
@@ -832,13 +838,13 @@
       </c>
       <c r="E8" s="14">
         <f t="shared" si="0"/>
-        <v>13.142857142857142</v>
+        <v>11.142857142857142</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>16</v>
@@ -847,7 +853,7 @@
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="2"/>
@@ -862,7 +868,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
@@ -875,7 +881,7 @@
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="2"/>
@@ -890,14 +896,14 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>12.888888888888889</v>
+        <v>10.888888888888889</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="2"/>
@@ -912,14 +918,14 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>12.8</v>
+        <v>10.8</v>
       </c>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="2"/>
@@ -934,13 +940,13 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" ref="E12:E13" si="5">+D12+A12</f>
-        <v>12.727272727272727</v>
+        <v>10.727272727272727</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="2"/>
@@ -955,7 +961,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="5"/>
-        <v>12.666666666666666</v>
+        <v>10.666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -966,6 +972,430 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27411431-77E0-8E4C-8B36-6538B727FA93}">
   <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <f>+$G$8</f>
+        <v>12</v>
+      </c>
+      <c r="B2" s="6">
+        <f>+$G$9</f>
+        <v>60</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <f t="shared" ref="D2:D12" si="0">+B2/C2</f>
+        <v>12</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" ref="E2:E12" si="1">+D2+A2</f>
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>120</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <f t="shared" ref="A3:A15" si="2">+$G$8</f>
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B15" si="3">+$G$9</f>
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2307692307692299</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="1"/>
+        <v>21.23076923076923</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" si="1"/>
+        <v>19.5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>60</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>40</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="1"/>
+        <v>16.8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1">
+        <v>70</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="1"/>
+        <v>14.4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C11" s="1">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="1"/>
+        <v>13.714285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="12">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C12" s="12">
+        <v>40</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13:D14" si="4">+B13/C13</f>
+        <v>1.2</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="E13:E14" si="5">+D13+A13</f>
+        <v>13.2</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C14" s="1">
+        <v>60</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="C15" s="1">
+        <v>70</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15" si="6">+B15/C15</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" ref="E15" si="7">+D15+A15</f>
+        <v>12.857142857142858</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4331158A-D018-7444-BB39-19E7D1A630F9}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -1000,452 +1430,28 @@
         <v>10</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <f>+$G$8</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6">
         <f>+$G$9</f>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7">
-        <f t="shared" ref="D2:D12" si="0">+B2/C2</f>
-        <v>14</v>
-      </c>
-      <c r="E2" s="8">
-        <f t="shared" ref="E2:E12" si="1">+D2+A2</f>
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
-        <v>120</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <f t="shared" ref="A3:A15" si="2">+$G$8</f>
-        <v>15</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B15" si="3">+$G$9</f>
-        <v>70</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="0"/>
-        <v>10.76923076923077</v>
-      </c>
-      <c r="E3" s="10">
-        <f t="shared" si="1"/>
-        <v>25.76923076923077</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>8.75</v>
-      </c>
-      <c r="E4" s="10">
-        <f t="shared" si="1"/>
-        <v>23.75</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>60</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E5" s="10">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" si="1"/>
-        <v>20.6</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1">
-        <v>70</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C7" s="1">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" si="1"/>
-        <v>19.666666666666668</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="1"/>
-        <v>18.5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C9" s="1">
-        <v>25</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="E9" s="10">
-        <f t="shared" si="1"/>
-        <v>17.8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C10" s="1">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="1"/>
-        <v>17.333333333333332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C11" s="1">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B12" s="12">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C12" s="12">
-        <v>40</v>
-      </c>
-      <c r="D12" s="13">
-        <f t="shared" si="0"/>
-        <v>1.75</v>
-      </c>
-      <c r="E12" s="14">
-        <f t="shared" si="1"/>
-        <v>16.75</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C13" s="1">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:D14" si="4">+B13/C13</f>
-        <v>1.4</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" ref="E13:E14" si="5">+D13+A13</f>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C14" s="1">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="4"/>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="5"/>
-        <v>16.166666666666668</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="C15" s="1">
-        <v>70</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15" si="6">+B15/C15</f>
         <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" ref="E15" si="7">+D15+A15</f>
-        <v>16</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4331158A-D018-7444-BB39-19E7D1A630F9}">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <f>+$G$8</f>
-        <v>3</v>
-      </c>
-      <c r="B2" s="6">
-        <f>+$G$9</f>
-        <v>70</v>
-      </c>
-      <c r="C2" s="6">
-        <v>3</v>
       </c>
       <c r="D2" s="7">
         <f>+B2/C2</f>
-        <v>23.333333333333332</v>
+        <v>40</v>
       </c>
       <c r="E2" s="8">
         <f t="shared" ref="E2:E10" si="0">+D2+A2</f>
-        <v>26.333333333333332</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1462,20 +1468,20 @@
         <f t="shared" ref="A3:A9" si="1">+$G$8</f>
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="18">
         <f t="shared" ref="B3:B9" si="2">+$G$9</f>
-        <v>70</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
+        <v>40</v>
+      </c>
+      <c r="C3" s="18">
+        <v>2</v>
+      </c>
+      <c r="D3" s="19">
         <f t="shared" ref="D3:D10" si="3">+B3/C3</f>
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
@@ -1492,20 +1498,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="3"/>
-        <v>14</v>
+      <c r="B4" s="18">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3</v>
+      </c>
+      <c r="D4" s="19">
+        <f t="shared" si="3"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16.333333333333336</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -1522,20 +1528,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="3"/>
-        <v>11.666666666666666</v>
+      <c r="B5" s="18">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C5" s="18">
+        <v>4</v>
+      </c>
+      <c r="D5" s="19">
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" si="0"/>
-        <v>14.666666666666666</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -1552,20 +1558,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
+      <c r="B6" s="18">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C6" s="18">
+        <v>5</v>
+      </c>
+      <c r="D6" s="19">
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -1582,20 +1588,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="C7" s="1">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="3"/>
-        <v>8.75</v>
+      <c r="B7" s="18">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C7" s="18">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19">
+        <f t="shared" si="3"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" si="0"/>
-        <v>11.75</v>
+        <v>9.6666666666666679</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -1612,20 +1618,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="C8" s="1">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="3"/>
-        <v>7.7777777777777777</v>
+      <c r="B8" s="18">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C8" s="18">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19">
+        <f t="shared" si="3"/>
+        <v>5.7142857142857144</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" si="0"/>
-        <v>10.777777777777779</v>
+        <v>8.7142857142857153</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -1642,113 +1648,113 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B9" s="1">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="3"/>
-        <v>7</v>
+      <c r="B9" s="18">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C9" s="18">
+        <v>8</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <f>+$G$8</f>
         <v>3</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="18">
         <f>+$G$9</f>
-        <v>70</v>
-      </c>
-      <c r="C10" s="12">
+        <v>40</v>
+      </c>
+      <c r="C10" s="18">
+        <v>9</v>
+      </c>
+      <c r="D10" s="19">
+        <f t="shared" si="3"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="0"/>
+        <v>7.4444444444444446</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <f>+$G$8</f>
+        <v>3</v>
+      </c>
+      <c r="B11" s="18">
+        <f>+$G$9</f>
+        <v>40</v>
+      </c>
+      <c r="C11" s="18">
+        <v>10</v>
+      </c>
+      <c r="D11" s="19">
+        <f t="shared" ref="D11:D12" si="4">+B11/C11</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ref="E11:E12" si="5">+D11+A11</f>
+        <v>7</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <f>+$G$8</f>
+        <v>3</v>
+      </c>
+      <c r="B12" s="18">
+        <f>+$G$9</f>
+        <v>40</v>
+      </c>
+      <c r="C12" s="18">
         <v>15</v>
       </c>
-      <c r="D10" s="13">
-        <f t="shared" si="3"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="E10" s="14">
-        <f t="shared" si="0"/>
-        <v>7.666666666666667</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="D12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="5"/>
+        <v>5.6666666666666661</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <f>+$G$8</f>
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="12">
         <f>+$G$9</f>
-        <v>70</v>
-      </c>
-      <c r="C11" s="1">
+        <v>40</v>
+      </c>
+      <c r="C13" s="12">
         <v>20</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" ref="D11:D12" si="4">+B11/C11</f>
-        <v>3.5</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" ref="E11:E12" si="5">+D11+A11</f>
-        <v>6.5</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <f>+$G$8</f>
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <f>+$G$9</f>
-        <v>70</v>
-      </c>
-      <c r="C12" s="1">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="4"/>
-        <v>2.8</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="5"/>
-        <v>5.8</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f>+$G$8</f>
-        <v>3</v>
-      </c>
-      <c r="B13" s="1">
-        <f>+$G$9</f>
-        <v>70</v>
-      </c>
-      <c r="C13" s="1">
-        <v>30</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="D13" s="13">
         <f t="shared" ref="D13" si="6">+B13/C13</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
         <f t="shared" ref="E13" si="7">+D13+A13</f>
-        <v>5.3333333333333339</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1"/>
     </row>
